--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E204BF9-8ABA-4392-B78A-B136D15B5516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B8C2C-0382-4D82-BDA5-F6C4F5853176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
   <si>
     <t>Environment</t>
   </si>
@@ -64,15 +72,9 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Nadeem</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Sanket</t>
-  </si>
-  <si>
     <t>Test_Name</t>
   </si>
   <si>
@@ -326,34 +328,13 @@
   </si>
   <si>
     <t>mubashir_SoGo@123</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>5.47</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>5.01</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
-    <t>4.47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,13 +384,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,11 +406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -492,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -504,7 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -815,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -823,13 +793,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -918,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -932,13 +902,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +941,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,81 +973,81 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="4">
@@ -1097,37 +1067,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4">
@@ -1147,37 +1117,37 @@
     </row>
     <row r="4" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="4">
@@ -1197,37 +1167,37 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="4">
@@ -1247,37 +1217,37 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="4">
@@ -1297,37 +1267,37 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="4">
@@ -1347,37 +1317,37 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="4">
@@ -1394,42 +1364,42 @@
         <v>4.6133333333333333</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="4">
@@ -1446,42 +1416,42 @@
         <v>8.9733333333333345</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="4">
@@ -1498,42 +1468,42 @@
         <v>1.2866666666666668</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="4">
@@ -1550,42 +1520,42 @@
         <v>3.2533333333333334</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="4">
@@ -1602,42 +1572,42 @@
         <v>3.1199999999999997</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="4">
@@ -1654,42 +1624,42 @@
         <v>3.6133333333333333</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="4">
@@ -1706,42 +1676,42 @@
         <v>4.373333333333334</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="4">
@@ -1758,42 +1728,42 @@
         <v>4.5866666666666669</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="4">
@@ -1810,42 +1780,42 @@
         <v>5.8033333333333337</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="4">
@@ -1862,42 +1832,42 @@
         <v>2.0133333333333336</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="4">

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>Environment</t>
   </si>
@@ -334,7 +334,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +385,30 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +419,66 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -463,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -475,6 +558,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,8 +856,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,9 +911,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,10 +954,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,20 +1037,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="16" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="111.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="111.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1043,7 +1134,7 @@
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1093,7 +1184,7 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -1143,7 +1234,7 @@
       <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1193,7 +1284,7 @@
       <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1243,7 +1334,7 @@
       <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1293,7 +1384,7 @@
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1343,7 +1434,7 @@
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1395,7 +1486,7 @@
       <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1447,7 +1538,7 @@
       <c r="I10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1499,7 +1590,7 @@
       <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -1551,7 +1642,7 @@
       <c r="I12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -1603,7 +1694,7 @@
       <c r="I13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -1655,7 +1746,7 @@
       <c r="I14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -1707,7 +1798,7 @@
       <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -1759,7 +1850,7 @@
       <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -1811,7 +1902,7 @@
       <c r="I17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -1863,7 +1954,7 @@
       <c r="I18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="17" t="s">
         <v>96</v>
       </c>
       <c r="K18" s="7" t="s">

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_NSReadings.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="99">
   <si>
     <t>Environment</t>
   </si>
@@ -335,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +407,96 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +507,246 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -546,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -566,6 +894,38 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1134,7 +1494,7 @@
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1184,7 +1544,7 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -1234,7 +1594,7 @@
       <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1284,7 +1644,7 @@
       <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1334,7 +1694,7 @@
       <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1384,7 +1744,7 @@
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1434,7 +1794,7 @@
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1486,7 +1846,7 @@
       <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1538,7 +1898,7 @@
       <c r="I10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1590,7 +1950,7 @@
       <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -1642,7 +2002,7 @@
       <c r="I12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -1694,7 +2054,7 @@
       <c r="I13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -1746,7 +2106,7 @@
       <c r="I14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -1798,7 +2158,7 @@
       <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -1850,7 +2210,7 @@
       <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -1902,7 +2262,7 @@
       <c r="I17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -1954,7 +2314,7 @@
       <c r="I18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="49" t="s">
         <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
